--- a/src/DSA - 450 -questions.xlsx
+++ b/src/DSA - 450 -questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="468">
   <si>
     <t>Questions for DSA Preparation</t>
   </si>
@@ -1428,6 +1428,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1559,6 +1562,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="74" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -1907,7 +1911,7 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2139,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -2161,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -2183,7 +2187,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -2194,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
